--- a/medicine/Maladies infectieuses/Mathieu_François_Maxence_Audouard/Mathieu_François_Maxence_Audouard.xlsx
+++ b/medicine/Maladies infectieuses/Mathieu_François_Maxence_Audouard/Mathieu_François_Maxence_Audouard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mathieu_Fran%C3%A7ois_Maxence_Audouard</t>
+          <t>Mathieu_François_Maxence_Audouard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mathieu François Maxence Audouard, né le 29 juillet 1776 à Castres et mort le 6 janvier 1856 à Paris, est un médecin français. Il s’est opposé à Nicolas Chervin, connu pour avoir voué sa vie à établir la non-contagion de la fièvre jaune[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathieu François Maxence Audouard, né le 29 juillet 1776 à Castres et mort le 6 janvier 1856 à Paris, est un médecin français. Il s’est opposé à Nicolas Chervin, connu pour avoir voué sa vie à établir la non-contagion de la fièvre jaune.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mathieu_Fran%C3%A7ois_Maxence_Audouard</t>
+          <t>Mathieu_François_Maxence_Audouard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études à la Faculté de médecine de Montpellier avec la thèse intitulée « Du tétanos », et se consacre ensuite à la carrière militaire. Il écrit des Notices historiques sur la vie et les ouvrages de Jean Izard et Observations pratiques sur les bons effets du quinquina du contre la goutte[2] et fait des observations à propos du paludisme, dont il fait des publications à partir de sa pratique dans les hôpitaux militaires l'armée française en Italie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études à la Faculté de médecine de Montpellier avec la thèse intitulée « Du tétanos », et se consacre ensuite à la carrière militaire. Il écrit des Notices historiques sur la vie et les ouvrages de Jean Izard et Observations pratiques sur les bons effets du quinquina du contre la goutte et fait des observations à propos du paludisme, dont il fait des publications à partir de sa pratique dans les hôpitaux militaires l'armée française en Italie.
 </t>
         </is>
       </c>
